--- a/영단어 정리.xlsx
+++ b/영단어 정리.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SE\Desktop\practice\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AFDB7E2-F32B-4AAF-BD6B-D54DB5EF429F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B2EB844-85C8-44D4-B5D6-4358B5700BA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15620" xr2:uid="{ACDC707C-9682-4047-A922-4E32E9C5B029}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{ACDC707C-9682-4047-A922-4E32E9C5B029}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,8 +35,305 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>SE</author>
+  </authors>
+  <commentList>
+    <comment ref="D15" authorId="0" shapeId="0" xr:uid="{050115F8-93D4-4030-947D-72C3E66899CC}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">demonstrator
+: </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">시위자
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>cordon
+: (</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>경찰</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>,</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>군인</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>등이</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>설치한</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>진입이나</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>진출</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">) </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>저지산</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D18" authorId="0" shapeId="0" xr:uid="{973FFB9D-5BAC-4140-A493-6F26DEC6EF3B}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">thief
+: </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>도둑</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">, </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">절도범
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>be involved in
+: ~</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>에</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>개입되다</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">. </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>관계되다</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="75">
   <si>
     <t>commission</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -91,6 +388,306 @@
   </si>
   <si>
     <t>n.외해</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>squadron</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.비행중대, 소함대</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>blockade</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.(특히 항구의) 봉쇄, (출입) 차단 v.봉쇄하다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>take part in</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>…에 참여[참가]하다, 가담하다, 협력하다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>한글</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>영문</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>단어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>occur</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. v - (somewhat formal) to happen
+2. (formal) to appear or exist, to be found</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 일어나다, 발생하다 2.(어디에)존재하다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fleet</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>예문(영한)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>예문(영영)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(N)
+1-a. a group of military ships that are controlled by one leader
+1-b . all of a country's millitary ships
+2. agroup of ships or vehicles that move or work together or that are controlled by one company
+(adj)
+1. very fast</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(1-a)
+He was the commander of the Pacific fleet.
+(1-b)
+the British fleet
+(2-a)
+a fishing fleet</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n. 1. 함대 2. 선단 3. (한 국가의)전 해군 함대, 해군력 4. (한 기관이 소유한 전체 비행기버스택시 등의) 무리
+adj. 빠른, 빨리 달리는</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(n-2)
+a fishing/whaling fleet
+(n-3)
+a reduction in the size of the British fleet
+(n-4)
+the company's new fleet of vans
+(adj-1)
+fleet of foot</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>attempt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n. 1.(특히 힘든 일에 대한) 시도  2. 살해기도 3.(스포츠에서 더 좋은 기록을 내기 위한) 시도[도전]
+v. 1.(특히 힘든 일을) 시도하다, 애써 해보다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(N)
+1. Two factories were closed in an attempt to cut costs.
+2. Someone has made an attempt on the President's life.
+3. his attempt on the world land speed record.
+(V)
+1. I will attempt to answer all your qustions.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>break through</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v. 1.(무력으로 ~을) 뚫고 나아가다 2. (구름 뒤에서) 나타나다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(V)
+1. Demonstrators broke through the police cordon.
+2. The sun broke through at last in the afternoon.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>although</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>conj. 1. (비록) …이긴 하지만 (=though) 2. 그러나, 하지만</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(Conj)
+1. Although the sun was shining it wasn't very warm.
+2. I felt he was wrong, although I didn't say so at the time.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>be unable to</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>phrase. 1. 능력이 없다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>chase</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v. 1. 뒤쫓다. 추적하다 2. (돈, 성공 등을)좇다(추구하다)
+n. 1. 추적, 추격 2. (~을)좇음(추구함)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(V)
+1. My dog likes chasing rabbits.
+2. Too many people are chasing too few jobs nowadays.
+(N)
+1. The theves were caught by police after a short chase.
+2. Three teams are involoved In the chase for the championship.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>escape</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v. 1. 달아나다, 탈출하다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>subvention</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n. (정부 등이 기관에 주는) 보조금[지원금]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(N) 
+1. an amount of money that is given to a person or group by a government or organization</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cruiser</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n. 1.순양함 2.(유람용) 순항 보트 3. 美 순찰차</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(N)
+1. US police car
+2. a large and fast mililtary ship
+3. a boat that has room to live on and that is used for pleasuer-called also cabin cruiser</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>destruction</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n. 1. 파괴, 파멸,말살</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(N)
+1. the destrction of the rainforests.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(N)
+1. the act or process of damaging something so badly that it no longer exists or cannot be repaired;
+the act or process of destroying something</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(N)
+1. War results in death and widespread destruction.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>destroyer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n. 1.구축함 2. 파괴자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(N)
+2. Sugar is the destroyer of the healthy teeth.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(N)
+1. a small and fast military ship that protects bigger ships.
+2. something that causes the destruction of something.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(N)
+2. The pamphlet describes alcohol as a destroyer of families.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>be responsible for</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>phrase. ~에 책임이 있다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>obsolete</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a. 1. 더 이상 쓸모가 없는, 한물간, 구식의</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(adj)
+1-a. obsolete technology
+1-b. With technological changes many traditional skills have become obsolete.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(adj)
+1. no longer used because something newer exist; replaced by something newer
+2. no longer used by anyone</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(adj)
+1. obsolete[=outdated] computers
+2. an obsolete word</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>quotation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n. 1.인용구[문] 2.인용 3. 견적</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(N)
+1. The book began with a quotation from Goethe.
+2. The writer illustrates his point by quotation from a number of sources.
+3. You need to get a written quotation before they start work.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -98,7 +695,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -114,13 +711,41 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="돋움"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -132,20 +757,33 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="강조색1" xfId="1" builtinId="29"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -159,6 +797,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -457,20 +1099,37 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE360D54-F0DE-4DE9-A623-7FBF2330B5D0}">
-  <dimension ref="A2:B8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE360D54-F0DE-4DE9-A623-7FBF2330B5D0}">
+  <dimension ref="A1:E27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="17.1640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="30.25" style="1" customWidth="1"/>
+    <col min="1" max="1" width="30.58203125" style="1" customWidth="1"/>
+    <col min="2" max="5" width="60.58203125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -478,7 +1137,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -486,7 +1145,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
@@ -494,7 +1153,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
@@ -502,7 +1161,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
@@ -510,7 +1169,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
@@ -518,16 +1177,226 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A11" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="34" x14ac:dyDescent="0.45">
+      <c r="A12" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="136" x14ac:dyDescent="0.45">
+      <c r="A13" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="136" x14ac:dyDescent="0.45">
+      <c r="A14" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="51" x14ac:dyDescent="0.45">
+      <c r="A15" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="51" x14ac:dyDescent="0.45">
+      <c r="A16" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A17" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="102" x14ac:dyDescent="0.45">
+      <c r="A18" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A19" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A20" s="4">
+        <v>44900</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="51" x14ac:dyDescent="0.45">
+      <c r="A21" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="85" x14ac:dyDescent="0.45">
+      <c r="A22" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="68" x14ac:dyDescent="0.45">
+      <c r="A23" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="51" x14ac:dyDescent="0.45">
+      <c r="A24" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A25" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="68" x14ac:dyDescent="0.45">
+      <c r="A26" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="85" x14ac:dyDescent="0.45">
+      <c r="A27" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>74</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>